--- a/期末專案/Kalman_準確率.xlsx
+++ b/期末專案/Kalman_準確率.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\(週三) opencv 樹pi\期末專案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CD341E-F3A1-41F9-8083-478855D36355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3F9A05-0003-4A3C-BF41-2593D127A720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1653,34 +1653,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>6.324555320336759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>477</c:v>
+                  <c:v>21.840329667841555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1042</c:v>
+                  <c:v>32.280024783137947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1256</c:v>
+                  <c:v>35.440090293338699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1306</c:v>
+                  <c:v>36.138621999185304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1525</c:v>
+                  <c:v>39.05124837953327</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1762</c:v>
+                  <c:v>41.976183723630712</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1781</c:v>
+                  <c:v>42.201895692018383</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1802</c:v>
+                  <c:v>42.449970553582247</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1721</c:v>
+                  <c:v>41.484937025383083</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3764,16 +3764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>299936</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>4188</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>386404</xdr:colOff>
+      <xdr:colOff>425450</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>11483</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4067,7 +4067,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4113,8 +4113,8 @@
         <v>350</v>
       </c>
       <c r="H2">
-        <f xml:space="preserve"> (B2-E2)^2+(C2-F2)^2</f>
-        <v>40</v>
+        <f>SQRT(((B2-E2)^2+(C2-F2)^2))</f>
+        <v>6.324555320336759</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4134,8 +4134,8 @@
         <v>388</v>
       </c>
       <c r="H3">
-        <f xml:space="preserve"> (B3-E3)^2+(C3-F3)^2</f>
-        <v>477</v>
+        <f>SQRT(((B3-E3)^2+(C3-F3)^2))</f>
+        <v>21.840329667841555</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4155,8 +4155,8 @@
         <v>422</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H12" si="0" xml:space="preserve"> (B4-E4)^2+(C4-F4)^2</f>
-        <v>1042</v>
+        <f t="shared" ref="H4:H12" si="0">SQRT(((B4-E4)^2+(C4-F4)^2))</f>
+        <v>32.280024783137947</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1256</v>
+        <v>35.440090293338699</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1306</v>
+        <v>36.138621999185304</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1525</v>
+        <v>39.05124837953327</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>1762</v>
+        <v>41.976183723630712</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1781</v>
+        <v>42.201895692018383</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1802</v>
+        <v>42.449970553582247</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>1721</v>
+        <v>41.484937025383083</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
